--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.7562156365478</v>
+        <v>856.8238740169984</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.3967253511147</v>
+        <v>1172.344224831561</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.8999150720272</v>
+        <v>1060.45733740909</v>
       </c>
       <c r="AD2" t="n">
-        <v>631756.2156365479</v>
+        <v>856823.8740169983</v>
       </c>
       <c r="AE2" t="n">
-        <v>864396.7253511146</v>
+        <v>1172344.224831561</v>
       </c>
       <c r="AF2" t="n">
         <v>3.584952044794514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.77604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>781899.9150720271</v>
+        <v>1060457.33740909</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.3922320174483</v>
+        <v>657.5514494649378</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.6620893726808</v>
+        <v>899.6909022805179</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.8003040009999</v>
+        <v>813.8256652909765</v>
       </c>
       <c r="AD3" t="n">
-        <v>481392.2320174483</v>
+        <v>657551.4494649378</v>
       </c>
       <c r="AE3" t="n">
-        <v>658662.0893726809</v>
+        <v>899690.9022805179</v>
       </c>
       <c r="AF3" t="n">
         <v>4.510631720259344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.79166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>595800.3040009999</v>
+        <v>813825.6652909765</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.6393254578265</v>
+        <v>600.1883459756957</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.0068970771169</v>
+        <v>821.2041734050175</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.0750107596069</v>
+        <v>742.8295996625382</v>
       </c>
       <c r="AD4" t="n">
-        <v>443639.3254578265</v>
+        <v>600188.3459756958</v>
       </c>
       <c r="AE4" t="n">
-        <v>607006.897077117</v>
+        <v>821204.1734050175</v>
       </c>
       <c r="AF4" t="n">
         <v>4.878155299983579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>549075.010759607</v>
+        <v>742829.5996625382</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.1947250019781</v>
+        <v>570.7768999087708</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.719495729332</v>
+        <v>780.9621353548265</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.6325824527316</v>
+        <v>706.4282052438019</v>
       </c>
       <c r="AD5" t="n">
-        <v>414194.7250019781</v>
+        <v>570776.8999087708</v>
       </c>
       <c r="AE5" t="n">
-        <v>566719.4957293321</v>
+        <v>780962.1353548265</v>
       </c>
       <c r="AF5" t="n">
         <v>5.076622854596879e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.91145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>512632.5824527317</v>
+        <v>706428.2052438019</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>407.7923541989097</v>
+        <v>554.5528534464305</v>
       </c>
       <c r="AB6" t="n">
-        <v>557.9594895439086</v>
+        <v>758.7636792306379</v>
       </c>
       <c r="AC6" t="n">
-        <v>504.7086189628992</v>
+        <v>686.3483386163771</v>
       </c>
       <c r="AD6" t="n">
-        <v>407792.3541989097</v>
+        <v>554552.8534464305</v>
       </c>
       <c r="AE6" t="n">
-        <v>557959.4895439086</v>
+        <v>758763.6792306378</v>
       </c>
       <c r="AF6" t="n">
         <v>5.173717063671288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.33854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>504708.6189628991</v>
+        <v>686348.3386163771</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>391.9706095111848</v>
+        <v>548.5186189991966</v>
       </c>
       <c r="AB7" t="n">
-        <v>536.3114804560505</v>
+        <v>750.5073734482969</v>
       </c>
       <c r="AC7" t="n">
-        <v>485.1266654792146</v>
+        <v>678.8800030701049</v>
       </c>
       <c r="AD7" t="n">
-        <v>391970.6095111847</v>
+        <v>548518.6189991967</v>
       </c>
       <c r="AE7" t="n">
-        <v>536311.4804560505</v>
+        <v>750507.3734482969</v>
       </c>
       <c r="AF7" t="n">
         <v>5.257069820437213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>485126.6654792146</v>
+        <v>678880.0030701049</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>391.0584531948414</v>
+        <v>547.6064626828534</v>
       </c>
       <c r="AB8" t="n">
-        <v>535.0634279425331</v>
+        <v>749.2593209347795</v>
       </c>
       <c r="AC8" t="n">
-        <v>483.9977253459345</v>
+        <v>677.7510629368248</v>
       </c>
       <c r="AD8" t="n">
-        <v>391058.4531948414</v>
+        <v>547606.4626828533</v>
       </c>
       <c r="AE8" t="n">
-        <v>535063.427942533</v>
+        <v>749259.3209347795</v>
       </c>
       <c r="AF8" t="n">
         <v>5.28099682292172e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.71354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>483997.7253459345</v>
+        <v>677751.0629368249</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.6390876920201</v>
+        <v>736.1485854676971</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.4627393272033</v>
+        <v>1007.230971220412</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.6031375388136</v>
+        <v>911.1022609846825</v>
       </c>
       <c r="AD2" t="n">
-        <v>542639.0876920201</v>
+        <v>736148.5854676971</v>
       </c>
       <c r="AE2" t="n">
-        <v>742462.7393272032</v>
+        <v>1007230.971220413</v>
       </c>
       <c r="AF2" t="n">
         <v>4.369051663867724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>671603.1375388136</v>
+        <v>911102.2609846825</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.736563806298</v>
+        <v>596.271733939355</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.7210134727121</v>
+        <v>815.845292028168</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.3434290290253</v>
+        <v>737.9821624030579</v>
       </c>
       <c r="AD3" t="n">
-        <v>431736.563806298</v>
+        <v>596271.733939355</v>
       </c>
       <c r="AE3" t="n">
-        <v>590721.0134727121</v>
+        <v>815845.2920281681</v>
       </c>
       <c r="AF3" t="n">
         <v>5.279105895609778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.52604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>534343.4290290253</v>
+        <v>737982.1624030579</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.8383429822847</v>
+        <v>553.6929639652338</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.7082163742268</v>
+        <v>757.5871405068179</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.626590109762</v>
+        <v>685.2840870970763</v>
       </c>
       <c r="AD4" t="n">
-        <v>398838.3429822847</v>
+        <v>553692.9639652339</v>
       </c>
       <c r="AE4" t="n">
-        <v>545708.2163742268</v>
+        <v>757587.140506818</v>
       </c>
       <c r="AF4" t="n">
         <v>5.605010824107549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>493626.590109762</v>
+        <v>685284.0870970762</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.6050365351576</v>
+        <v>524.8132737867794</v>
       </c>
       <c r="AB5" t="n">
-        <v>519.3923579796722</v>
+        <v>718.0726743226461</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.8222803058443</v>
+        <v>649.5408261066201</v>
       </c>
       <c r="AD5" t="n">
-        <v>379605.0365351576</v>
+        <v>524813.2737867794</v>
       </c>
       <c r="AE5" t="n">
-        <v>519392.3579796721</v>
+        <v>718072.6743226461</v>
       </c>
       <c r="AF5" t="n">
         <v>5.812081134808277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.55729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>469822.2803058443</v>
+        <v>649540.8261066201</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>377.7509299625363</v>
+        <v>522.8576819876729</v>
       </c>
       <c r="AB6" t="n">
-        <v>516.8554875696028</v>
+        <v>715.3969473484873</v>
       </c>
       <c r="AC6" t="n">
-        <v>467.527525247192</v>
+        <v>647.1204667594686</v>
       </c>
       <c r="AD6" t="n">
-        <v>377750.9299625363</v>
+        <v>522857.6819876729</v>
       </c>
       <c r="AE6" t="n">
-        <v>516855.4875696028</v>
+        <v>715396.9473484873</v>
       </c>
       <c r="AF6" t="n">
         <v>5.835096274437117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>467527.525247192</v>
+        <v>647120.4667594687</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.0756647521133</v>
+        <v>510.7292071689569</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.0396540479212</v>
+        <v>698.8022330309747</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.8892028545962</v>
+        <v>632.1095286855915</v>
       </c>
       <c r="AD2" t="n">
-        <v>361075.6647521133</v>
+        <v>510729.2071689569</v>
       </c>
       <c r="AE2" t="n">
-        <v>494039.6540479212</v>
+        <v>698802.2330309746</v>
       </c>
       <c r="AF2" t="n">
         <v>7.797422898136169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>446889.2028545963</v>
+        <v>632109.5286855915</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.2551772547662</v>
+        <v>484.4859181241788</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.025120986515</v>
+        <v>662.8950071877081</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.0711445274706</v>
+        <v>599.6292380806983</v>
       </c>
       <c r="AD3" t="n">
-        <v>344255.1772547662</v>
+        <v>484485.9181241788</v>
       </c>
       <c r="AE3" t="n">
-        <v>471025.120986515</v>
+        <v>662895.007187708</v>
       </c>
       <c r="AF3" t="n">
         <v>8.14186000840184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>426071.1445274706</v>
+        <v>599629.2380806983</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.5650229973748</v>
+        <v>581.6672299550307</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.4356184843469</v>
+        <v>795.8627653715726</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.5168506851629</v>
+        <v>719.9067400449155</v>
       </c>
       <c r="AD2" t="n">
-        <v>420565.0229973748</v>
+        <v>581667.2299550307</v>
       </c>
       <c r="AE2" t="n">
-        <v>575435.6184843469</v>
+        <v>795862.7653715726</v>
       </c>
       <c r="AF2" t="n">
         <v>6.196331930553798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.48958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>520516.8506851629</v>
+        <v>719906.7400449155</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.5020569727961</v>
+        <v>500.6391236734941</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.5183303446973</v>
+        <v>684.9965356494153</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.7039493433992</v>
+        <v>619.6214276857103</v>
       </c>
       <c r="AD3" t="n">
-        <v>358502.0569727961</v>
+        <v>500639.1236734941</v>
       </c>
       <c r="AE3" t="n">
-        <v>490518.3303446973</v>
+        <v>684996.5356494152</v>
       </c>
       <c r="AF3" t="n">
         <v>7.044786365792107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>443703.9493433992</v>
+        <v>619621.4276857103</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.4786990125574</v>
+        <v>498.6157657132554</v>
       </c>
       <c r="AB4" t="n">
-        <v>487.7498827192456</v>
+        <v>682.2280880239634</v>
       </c>
       <c r="AC4" t="n">
-        <v>441.1997184737799</v>
+        <v>617.117196816091</v>
       </c>
       <c r="AD4" t="n">
-        <v>356478.6990125574</v>
+        <v>498615.7657132554</v>
       </c>
       <c r="AE4" t="n">
-        <v>487749.8827192456</v>
+        <v>682228.0880239634</v>
       </c>
       <c r="AF4" t="n">
         <v>7.108316822846309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>441199.7184737799</v>
+        <v>617117.196816091</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.3352560889793</v>
+        <v>483.0365841489326</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.1346883803143</v>
+        <v>660.9119645026738</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.1702549629846</v>
+        <v>597.8354542063059</v>
       </c>
       <c r="AD2" t="n">
-        <v>344335.2560889793</v>
+        <v>483036.5841489326</v>
       </c>
       <c r="AE2" t="n">
-        <v>471134.6883803143</v>
+        <v>660911.9645026737</v>
       </c>
       <c r="AF2" t="n">
         <v>9.1438457235785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>426170.2549629846</v>
+        <v>597835.4542063059</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>564.1873850221224</v>
+        <v>767.9392370522186</v>
       </c>
       <c r="AB2" t="n">
-        <v>771.9460703780343</v>
+        <v>1050.728343222919</v>
       </c>
       <c r="AC2" t="n">
-        <v>698.2726208542683</v>
+        <v>950.4483048522143</v>
       </c>
       <c r="AD2" t="n">
-        <v>564187.3850221224</v>
+        <v>767939.2370522185</v>
       </c>
       <c r="AE2" t="n">
-        <v>771946.0703780343</v>
+        <v>1050728.343222919</v>
       </c>
       <c r="AF2" t="n">
         <v>4.150888965653106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.36458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>698272.6208542683</v>
+        <v>950448.3048522143</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.4878664589749</v>
+        <v>614.4381691125448</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.009128894307</v>
+        <v>840.7014100786827</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.3135208033673</v>
+        <v>760.4660474326122</v>
       </c>
       <c r="AD3" t="n">
-        <v>449487.8664589749</v>
+        <v>614438.1691125447</v>
       </c>
       <c r="AE3" t="n">
-        <v>615009.128894307</v>
+        <v>840701.4100786827</v>
       </c>
       <c r="AF3" t="n">
         <v>5.053437998912303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.15104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>556313.5208033673</v>
+        <v>760466.0474326122</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>415.1588072490571</v>
+        <v>570.4001812038001</v>
       </c>
       <c r="AB4" t="n">
-        <v>568.0385955920925</v>
+        <v>780.4466922030291</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.8257892759586</v>
+        <v>705.9619552629832</v>
       </c>
       <c r="AD4" t="n">
-        <v>415158.8072490571</v>
+        <v>570400.1812038001</v>
       </c>
       <c r="AE4" t="n">
-        <v>568038.5955920925</v>
+        <v>780446.6922030291</v>
       </c>
       <c r="AF4" t="n">
         <v>5.399849510215994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>513825.7892759586</v>
+        <v>705961.9552629832</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.4802537946024</v>
+        <v>540.7547821382692</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.4310894303369</v>
+        <v>739.884549338867</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.093806509288</v>
+        <v>669.2710063844519</v>
       </c>
       <c r="AD5" t="n">
-        <v>385480.2537946025</v>
+        <v>540754.7821382692</v>
       </c>
       <c r="AE5" t="n">
-        <v>527431.0894303368</v>
+        <v>739884.5493388671</v>
       </c>
       <c r="AF5" t="n">
         <v>5.606486582999972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>477093.806509288</v>
+        <v>669271.0063844519</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.1864588671014</v>
+        <v>526.7189041230175</v>
       </c>
       <c r="AB6" t="n">
-        <v>521.5561297816669</v>
+        <v>720.6800418191642</v>
       </c>
       <c r="AC6" t="n">
-        <v>471.7795447639294</v>
+        <v>651.8993501087339</v>
       </c>
       <c r="AD6" t="n">
-        <v>381186.4588671013</v>
+        <v>526718.9041230176</v>
       </c>
       <c r="AE6" t="n">
-        <v>521556.1297816669</v>
+        <v>720680.0418191642</v>
       </c>
       <c r="AF6" t="n">
         <v>5.682487325123259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>471779.5447639294</v>
+        <v>651899.3501087339</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.6044947693854</v>
+        <v>527.2384252517868</v>
       </c>
       <c r="AB7" t="n">
-        <v>522.1281049456143</v>
+        <v>721.390873547201</v>
       </c>
       <c r="AC7" t="n">
-        <v>472.2969314210019</v>
+        <v>652.5423410543054</v>
       </c>
       <c r="AD7" t="n">
-        <v>381604.4947693854</v>
+        <v>527238.4252517868</v>
       </c>
       <c r="AE7" t="n">
-        <v>522128.1049456143</v>
+        <v>721390.8735472009</v>
       </c>
       <c r="AF7" t="n">
         <v>5.679720151616654e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.50520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>472296.9314210019</v>
+        <v>652542.3410543054</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.9757011939564</v>
+        <v>485.9738295852317</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.8015089260695</v>
+        <v>664.9308332907414</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.5369438636708</v>
+        <v>601.4707677977581</v>
       </c>
       <c r="AD2" t="n">
-        <v>338975.7011939564</v>
+        <v>485973.8295852317</v>
       </c>
       <c r="AE2" t="n">
-        <v>463801.5089260695</v>
+        <v>664930.8332907413</v>
       </c>
       <c r="AF2" t="n">
         <v>9.834554527529429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>419536.9438636709</v>
+        <v>601470.7677977581</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.1721746869464</v>
+        <v>652.6968429839168</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.9927531079576</v>
+        <v>893.0486155230624</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.2902868464536</v>
+        <v>807.8173090591446</v>
       </c>
       <c r="AD2" t="n">
-        <v>480172.1746869464</v>
+        <v>652696.8429839168</v>
       </c>
       <c r="AE2" t="n">
-        <v>656992.7531079575</v>
+        <v>893048.6155230624</v>
       </c>
       <c r="AF2" t="n">
         <v>5.148072525093286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.27604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>594290.2868464536</v>
+        <v>807817.3090591446</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.4109808073411</v>
+        <v>543.7919159260491</v>
       </c>
       <c r="AB3" t="n">
-        <v>534.1775276574892</v>
+        <v>744.0400897761941</v>
       </c>
       <c r="AC3" t="n">
-        <v>483.1963741407266</v>
+        <v>673.0299478747779</v>
       </c>
       <c r="AD3" t="n">
-        <v>390410.9808073411</v>
+        <v>543791.9159260491</v>
       </c>
       <c r="AE3" t="n">
-        <v>534177.5276574893</v>
+        <v>744040.0897761941</v>
       </c>
       <c r="AF3" t="n">
         <v>6.032867238883295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.96354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>483196.3741407266</v>
+        <v>673029.947874778</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.4391477844983</v>
+        <v>512.1643193119088</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.1146963867747</v>
+        <v>700.7658167776408</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.0026972930402</v>
+        <v>633.8857107553829</v>
       </c>
       <c r="AD4" t="n">
-        <v>368439.1477844983</v>
+        <v>512164.3193119088</v>
       </c>
       <c r="AE4" t="n">
-        <v>504114.6963867747</v>
+        <v>700765.8167776408</v>
       </c>
       <c r="AF4" t="n">
         <v>6.367524579774612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.32291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>456002.6972930402</v>
+        <v>633885.7107553829</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.5588376262467</v>
+        <v>511.2840091536572</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.9102171917116</v>
+        <v>699.5613375825777</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.9131719018569</v>
+        <v>632.7961853641996</v>
       </c>
       <c r="AD5" t="n">
-        <v>367558.8376262467</v>
+        <v>511284.0091536572</v>
       </c>
       <c r="AE5" t="n">
-        <v>502910.2171917116</v>
+        <v>699561.3375825777</v>
       </c>
       <c r="AF5" t="n">
         <v>6.385307956792193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.24479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>454913.1719018569</v>
+        <v>632796.1853641996</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.5153790413819</v>
+        <v>714.4015370647149</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.5603492391457</v>
+        <v>977.4757001833885</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.459150996001</v>
+        <v>884.1867912536467</v>
       </c>
       <c r="AD2" t="n">
-        <v>521515.379041382</v>
+        <v>714401.5370647149</v>
       </c>
       <c r="AE2" t="n">
-        <v>713560.3492391456</v>
+        <v>977475.7001833885</v>
       </c>
       <c r="AF2" t="n">
         <v>4.605710947773884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>645459.150996001</v>
+        <v>884186.7912536467</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.7367526086177</v>
+        <v>578.7369591393651</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.4611218133067</v>
+        <v>791.8534395671541</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.3034287841305</v>
+        <v>716.2800586681467</v>
       </c>
       <c r="AD3" t="n">
-        <v>414736.7526086177</v>
+        <v>578736.9591393651</v>
       </c>
       <c r="AE3" t="n">
-        <v>567461.1218133067</v>
+        <v>791853.439567154</v>
       </c>
       <c r="AF3" t="n">
         <v>5.510595138773929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>513303.4287841305</v>
+        <v>716280.0586681467</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.773251644914</v>
+        <v>536.4722883386588</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.0414467166044</v>
+        <v>734.025052391948</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.8824033808665</v>
+        <v>663.970731602291</v>
       </c>
       <c r="AD4" t="n">
-        <v>391773.251644914</v>
+        <v>536472.2883386589</v>
       </c>
       <c r="AE4" t="n">
-        <v>536041.4467166044</v>
+        <v>734025.0523919479</v>
       </c>
       <c r="AF4" t="n">
         <v>5.850781236759285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.13020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>484882.4033808665</v>
+        <v>663970.731602291</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.5881493974649</v>
+        <v>519.2530206724289</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.5280316684411</v>
+        <v>710.4648907105369</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.6130756636147</v>
+        <v>642.6591186848592</v>
       </c>
       <c r="AD5" t="n">
-        <v>374588.1493974649</v>
+        <v>519253.0206724289</v>
       </c>
       <c r="AE5" t="n">
-        <v>512528.0316684412</v>
+        <v>710464.8907105369</v>
       </c>
       <c r="AF5" t="n">
         <v>5.994544721065075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.40104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>463613.0756636147</v>
+        <v>642659.1186848592</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.5624363140877</v>
+        <v>519.2273075890517</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.4928498933833</v>
+        <v>710.429708935479</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.5812515877905</v>
+        <v>642.6272946090349</v>
       </c>
       <c r="AD6" t="n">
-        <v>374562.4363140877</v>
+        <v>519227.3075890517</v>
       </c>
       <c r="AE6" t="n">
-        <v>512492.8498933833</v>
+        <v>710429.7089354789</v>
       </c>
       <c r="AF6" t="n">
         <v>5.99190499607076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>463581.2515877904</v>
+        <v>642627.2946090349</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.4939588471458</v>
+        <v>824.2421629173314</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.9365234704013</v>
+        <v>1127.764490301349</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.3467921076473</v>
+        <v>1020.132230174391</v>
       </c>
       <c r="AD2" t="n">
-        <v>609493.9588471458</v>
+        <v>824242.1629173313</v>
       </c>
       <c r="AE2" t="n">
-        <v>833936.5234704013</v>
+        <v>1127764.490301349</v>
       </c>
       <c r="AF2" t="n">
         <v>3.754345389059171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.68229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>754346.7921076473</v>
+        <v>1020132.230174391</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>473.6532232176345</v>
+        <v>639.5540980150403</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.0732361118037</v>
+        <v>875.0661320396591</v>
       </c>
       <c r="AC3" t="n">
-        <v>586.2220360337919</v>
+        <v>791.5510485608231</v>
       </c>
       <c r="AD3" t="n">
-        <v>473653.2232176345</v>
+        <v>639554.0980150403</v>
       </c>
       <c r="AE3" t="n">
-        <v>648073.2361118037</v>
+        <v>875066.1320396591</v>
       </c>
       <c r="AF3" t="n">
         <v>4.686886463130017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.19270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>586222.036033792</v>
+        <v>791551.0485608231</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.4913633858971</v>
+        <v>593.3912271534458</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.912542972495</v>
+        <v>811.9040555646965</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.0893108011094</v>
+        <v>734.4170720160998</v>
       </c>
       <c r="AD4" t="n">
-        <v>427491.3633858971</v>
+        <v>593391.2271534458</v>
       </c>
       <c r="AE4" t="n">
-        <v>584912.542972495</v>
+        <v>811904.0555646964</v>
       </c>
       <c r="AF4" t="n">
         <v>5.043757552441901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>529089.3108011094</v>
+        <v>734417.0720160998</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.0534800205979</v>
+        <v>564.2246742301561</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.3167734132005</v>
+        <v>771.9970911175499</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.031804161157</v>
+        <v>698.3187722460126</v>
       </c>
       <c r="AD5" t="n">
-        <v>408053.4800205979</v>
+        <v>564224.6742301561</v>
       </c>
       <c r="AE5" t="n">
-        <v>558316.7734132005</v>
+        <v>771997.0911175499</v>
       </c>
       <c r="AF5" t="n">
         <v>5.24151335951921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.57291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>505031.804161157</v>
+        <v>698318.7722460126</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>391.5894137209403</v>
+        <v>547.7264425117178</v>
       </c>
       <c r="AB6" t="n">
-        <v>535.7899115586667</v>
+        <v>749.4234826297683</v>
       </c>
       <c r="AC6" t="n">
-        <v>484.6548743853706</v>
+        <v>677.8995572700463</v>
       </c>
       <c r="AD6" t="n">
-        <v>391589.4137209403</v>
+        <v>547726.4425117178</v>
       </c>
       <c r="AE6" t="n">
-        <v>535789.9115586667</v>
+        <v>749423.4826297683</v>
       </c>
       <c r="AF6" t="n">
         <v>5.347651743840416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>484654.8743853706</v>
+        <v>677899.5572700463</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>388.1255172059825</v>
+        <v>544.2625459967599</v>
       </c>
       <c r="AB7" t="n">
-        <v>531.0504555305724</v>
+        <v>744.684026601674</v>
       </c>
       <c r="AC7" t="n">
-        <v>480.3677453887294</v>
+        <v>673.612428273405</v>
       </c>
       <c r="AD7" t="n">
-        <v>388125.5172059825</v>
+        <v>544262.5459967599</v>
       </c>
       <c r="AE7" t="n">
-        <v>531050.4555305724</v>
+        <v>744684.0266016739</v>
       </c>
       <c r="AF7" t="n">
         <v>5.391829923517301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.71354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>480367.7453887294</v>
+        <v>673612.4282734051</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>388.3452028041522</v>
+        <v>544.4822315949295</v>
       </c>
       <c r="AB8" t="n">
-        <v>531.3510390578328</v>
+        <v>744.9846101289343</v>
       </c>
       <c r="AC8" t="n">
-        <v>480.6396416460196</v>
+        <v>673.8843245306954</v>
       </c>
       <c r="AD8" t="n">
-        <v>388345.2028041522</v>
+        <v>544482.2315949296</v>
       </c>
       <c r="AE8" t="n">
-        <v>531351.0390578328</v>
+        <v>744984.6101289343</v>
       </c>
       <c r="AF8" t="n">
         <v>5.390230156565213e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>480639.6416460196</v>
+        <v>673884.3245306953</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.5887892846975</v>
+        <v>601.3570832934962</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.4647747879976</v>
+        <v>822.8032913642835</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.0618208433436</v>
+        <v>744.2761000481479</v>
       </c>
       <c r="AD2" t="n">
-        <v>439588.7892846975</v>
+        <v>601357.0832934962</v>
       </c>
       <c r="AE2" t="n">
-        <v>601464.7747879976</v>
+        <v>822803.2913642835</v>
       </c>
       <c r="AF2" t="n">
         <v>5.825024631130192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>544061.8208433436</v>
+        <v>744276.1000481478</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.1419152237903</v>
+        <v>518.3894562135257</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.9715214504661</v>
+        <v>709.2833237200905</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.1595025611793</v>
+        <v>641.5903187896414</v>
       </c>
       <c r="AD3" t="n">
-        <v>366141.9152237903</v>
+        <v>518389.4562135257</v>
       </c>
       <c r="AE3" t="n">
-        <v>500971.5214504661</v>
+        <v>709283.3237200904</v>
       </c>
       <c r="AF3" t="n">
         <v>6.665718204440526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>453159.5025611793</v>
+        <v>641590.3187896414</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.2370679516144</v>
+        <v>502.9317125632201</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.8922489091988</v>
+        <v>688.1333569102219</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.8513044519202</v>
+        <v>622.4588751279417</v>
       </c>
       <c r="AD4" t="n">
-        <v>360237.0679516144</v>
+        <v>502931.7125632201</v>
       </c>
       <c r="AE4" t="n">
-        <v>492892.2489091988</v>
+        <v>688133.3569102219</v>
       </c>
       <c r="AF4" t="n">
         <v>6.834777386518627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>445851.3044519202</v>
+        <v>622458.8751279417</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.1516501073681</v>
+        <v>540.8991865368023</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.5085029009458</v>
+        <v>740.0821298076127</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.7364633258596</v>
+        <v>669.4497300505664</v>
       </c>
       <c r="AD2" t="n">
-        <v>381151.6501073681</v>
+        <v>540899.1865368023</v>
       </c>
       <c r="AE2" t="n">
-        <v>521508.5029009458</v>
+        <v>740082.1298076126</v>
       </c>
       <c r="AF2" t="n">
         <v>7.162211347432992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>471736.4633258596</v>
+        <v>669449.7300505664</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.3957754767573</v>
+        <v>489.3082907799743</v>
       </c>
       <c r="AB3" t="n">
-        <v>476.6904701441446</v>
+        <v>669.493190203434</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.1958007128634</v>
+        <v>605.5976997700113</v>
       </c>
       <c r="AD3" t="n">
-        <v>348395.7754767573</v>
+        <v>489308.2907799743</v>
       </c>
       <c r="AE3" t="n">
-        <v>476690.4701441446</v>
+        <v>669493.190203434</v>
       </c>
       <c r="AF3" t="n">
         <v>7.761497173366867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>431195.8007128634</v>
+        <v>605597.6997700114</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.3871578537721</v>
+        <v>490.2143056986474</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.1009703139889</v>
+        <v>670.7328397857196</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.5215092875502</v>
+        <v>606.7190389360229</v>
       </c>
       <c r="AD2" t="n">
-        <v>341387.1578537721</v>
+        <v>490214.3056986474</v>
       </c>
       <c r="AE2" t="n">
-        <v>467100.9703139889</v>
+        <v>670732.8397857196</v>
       </c>
       <c r="AF2" t="n">
         <v>8.515497017890696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>422521.5092875502</v>
+        <v>606719.0389360229</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.0239270169511</v>
+        <v>479.6134382817357</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.2357377415505</v>
+        <v>656.2282653086377</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.834291893955</v>
+        <v>593.5987606897355</v>
       </c>
       <c r="AD3" t="n">
-        <v>340023.9270169511</v>
+        <v>479613.4382817358</v>
       </c>
       <c r="AE3" t="n">
-        <v>465235.7377415504</v>
+        <v>656228.2653086376</v>
       </c>
       <c r="AF3" t="n">
         <v>8.610020053483139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>420834.291893955</v>
+        <v>593598.7606897355</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.7582638050962</v>
+        <v>497.6910956547467</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.9769779655161</v>
+        <v>680.9629136563481</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.218473401809</v>
+        <v>615.9727689144374</v>
       </c>
       <c r="AD2" t="n">
-        <v>342758.2638050963</v>
+        <v>497691.0956547468</v>
       </c>
       <c r="AE2" t="n">
-        <v>468976.9779655161</v>
+        <v>680962.913656348</v>
       </c>
       <c r="AF2" t="n">
         <v>1.060622920044776e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>424218.4734018091</v>
+        <v>615972.7689144374</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.5271630322117</v>
+        <v>683.2139464578531</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.8433461606577</v>
+        <v>934.8034628156887</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.482858386757</v>
+        <v>845.5871323294591</v>
       </c>
       <c r="AD2" t="n">
-        <v>500527.1630322117</v>
+        <v>683213.9464578531</v>
       </c>
       <c r="AE2" t="n">
-        <v>684843.3461606577</v>
+        <v>934803.4628156887</v>
       </c>
       <c r="AF2" t="n">
         <v>4.867221070792879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>619482.858386757</v>
+        <v>845587.1323294591</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.8024476674663</v>
+        <v>561.7294107429414</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.9732998728801</v>
+        <v>768.5829615310869</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.7211112534566</v>
+        <v>695.2304823955207</v>
       </c>
       <c r="AD3" t="n">
-        <v>407802.4476674662</v>
+        <v>561729.4107429413</v>
       </c>
       <c r="AE3" t="n">
-        <v>557973.2998728801</v>
+        <v>768582.9615310868</v>
       </c>
       <c r="AF3" t="n">
         <v>5.750873351962194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>504721.1112534566</v>
+        <v>695230.4823955207</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.6857807100059</v>
+        <v>529.5444129479195</v>
       </c>
       <c r="AB4" t="n">
-        <v>514.0298592543356</v>
+        <v>724.5460276460466</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.9715709325396</v>
+        <v>655.3963716742438</v>
       </c>
       <c r="AD4" t="n">
-        <v>375685.7807100059</v>
+        <v>529544.4129479195</v>
       </c>
       <c r="AE4" t="n">
-        <v>514029.8592543356</v>
+        <v>724546.0276460466</v>
       </c>
       <c r="AF4" t="n">
         <v>6.082008073061951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>464971.5709325396</v>
+        <v>655396.3716742438</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>370.6409537849607</v>
+        <v>514.8459964417334</v>
       </c>
       <c r="AB5" t="n">
-        <v>507.1273044934325</v>
+        <v>704.4350057339119</v>
       </c>
       <c r="AC5" t="n">
-        <v>458.7277863102207</v>
+        <v>637.2047174674068</v>
       </c>
       <c r="AD5" t="n">
-        <v>370640.9537849607</v>
+        <v>514845.9964417334</v>
       </c>
       <c r="AE5" t="n">
-        <v>507127.3044934325</v>
+        <v>704435.0057339119</v>
       </c>
       <c r="AF5" t="n">
         <v>6.176936143591599e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.34895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>458727.7863102207</v>
+        <v>637204.7174674068</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.1732135348785</v>
+        <v>790.5346329605517</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.0280508954859</v>
+        <v>1081.644360743214</v>
       </c>
       <c r="AC2" t="n">
-        <v>725.4836193714593</v>
+        <v>978.4137410512762</v>
       </c>
       <c r="AD2" t="n">
-        <v>586173.2135348786</v>
+        <v>790534.6329605517</v>
       </c>
       <c r="AE2" t="n">
-        <v>802028.0508954859</v>
+        <v>1081644.360743214</v>
       </c>
       <c r="AF2" t="n">
         <v>3.949123434543356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.45833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>725483.6193714594</v>
+        <v>978413.7410512762</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.8481744952671</v>
+        <v>621.3657639755858</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.7115829465489</v>
+        <v>850.1800509942109</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.1854248548343</v>
+        <v>769.0400601625187</v>
       </c>
       <c r="AD3" t="n">
-        <v>455848.1744952671</v>
+        <v>621365.7639755858</v>
       </c>
       <c r="AE3" t="n">
-        <v>623711.5829465489</v>
+        <v>850180.0509942109</v>
       </c>
       <c r="AF3" t="n">
         <v>4.879209354427689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.56770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>564185.4248548343</v>
+        <v>769040.0601625186</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.2171238732014</v>
+        <v>576.8968993340749</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.3278516713131</v>
+        <v>789.3357885638467</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.3239303890223</v>
+        <v>714.0026887430496</v>
       </c>
       <c r="AD4" t="n">
-        <v>421217.1238732014</v>
+        <v>576896.8993340749</v>
       </c>
       <c r="AE4" t="n">
-        <v>576327.8516713131</v>
+        <v>789335.7885638467</v>
       </c>
       <c r="AF4" t="n">
         <v>5.218983135707948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.38020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>521323.9303890223</v>
+        <v>714002.6887430496</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>401.9679309602461</v>
+        <v>547.9455430469404</v>
       </c>
       <c r="AB5" t="n">
-        <v>549.9902567133507</v>
+        <v>749.7232656480933</v>
       </c>
       <c r="AC5" t="n">
-        <v>497.4999585288012</v>
+        <v>678.1707294178506</v>
       </c>
       <c r="AD5" t="n">
-        <v>401967.9309602461</v>
+        <v>547945.5430469405</v>
       </c>
       <c r="AE5" t="n">
-        <v>549990.2567133508</v>
+        <v>749723.2656480933</v>
       </c>
       <c r="AF5" t="n">
         <v>5.41474767043411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>497499.9585288012</v>
+        <v>678170.7294178506</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>385.7172731057295</v>
+        <v>531.7622050001282</v>
       </c>
       <c r="AB6" t="n">
-        <v>527.7553897083749</v>
+        <v>727.5805085739589</v>
       </c>
       <c r="AC6" t="n">
-        <v>477.3871560239484</v>
+        <v>658.141246001317</v>
       </c>
       <c r="AD6" t="n">
-        <v>385717.2731057295</v>
+        <v>531762.2050001282</v>
       </c>
       <c r="AE6" t="n">
-        <v>527755.3897083749</v>
+        <v>727580.5085739589</v>
       </c>
       <c r="AF6" t="n">
         <v>5.524421087897145e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>477387.1560239483</v>
+        <v>658141.2460013169</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>384.4141785638543</v>
+        <v>530.4591104582532</v>
       </c>
       <c r="AB7" t="n">
-        <v>525.9724382677075</v>
+        <v>725.7975571332917</v>
       </c>
       <c r="AC7" t="n">
-        <v>475.7743669663902</v>
+        <v>656.5284569437588</v>
       </c>
       <c r="AD7" t="n">
-        <v>384414.1785638543</v>
+        <v>530459.1104582532</v>
       </c>
       <c r="AE7" t="n">
-        <v>525972.4382677075</v>
+        <v>725797.5571332916</v>
       </c>
       <c r="AF7" t="n">
         <v>5.544293106198933e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>475774.3669663902</v>
+        <v>656528.4569437588</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.3435321404087</v>
+        <v>525.8434151608967</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.1426502598351</v>
+        <v>719.4821591973434</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.6960534631274</v>
+        <v>650.8157917231009</v>
       </c>
       <c r="AD2" t="n">
-        <v>363343.5321404088</v>
+        <v>525843.4151608967</v>
       </c>
       <c r="AE2" t="n">
-        <v>497142.6502598351</v>
+        <v>719482.1591973434</v>
       </c>
       <c r="AF2" t="n">
         <v>1.149636601861363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.55729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>449696.0534631275</v>
+        <v>650815.7917231009</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.7676199515545</v>
+        <v>561.2662881615207</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.3479382372745</v>
+        <v>767.9492967836608</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.0143806230732</v>
+        <v>694.6572937222347</v>
       </c>
       <c r="AD2" t="n">
-        <v>400767.6199515545</v>
+        <v>561266.2881615207</v>
       </c>
       <c r="AE2" t="n">
-        <v>548347.9382372745</v>
+        <v>767949.2967836608</v>
       </c>
       <c r="AF2" t="n">
         <v>6.647494358644327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>496014.3806230733</v>
+        <v>694657.2937222348</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.3289250544761</v>
+        <v>493.8740577357089</v>
       </c>
       <c r="AB3" t="n">
-        <v>482.0719789146925</v>
+        <v>675.7402739796921</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.0637058393454</v>
+        <v>611.2485706385006</v>
       </c>
       <c r="AD3" t="n">
-        <v>352328.9250544761</v>
+        <v>493874.0577357089</v>
       </c>
       <c r="AE3" t="n">
-        <v>482071.9789146925</v>
+        <v>675740.2739796921</v>
       </c>
       <c r="AF3" t="n">
         <v>7.417507155455414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>436063.7058393454</v>
+        <v>611248.5706385006</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.8971256582755</v>
+        <v>494.4422583395082</v>
       </c>
       <c r="AB4" t="n">
-        <v>482.8494160480523</v>
+        <v>676.5177111130519</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.7669454638371</v>
+        <v>611.9518102629922</v>
       </c>
       <c r="AD4" t="n">
-        <v>352897.1256582754</v>
+        <v>494442.2583395082</v>
       </c>
       <c r="AE4" t="n">
-        <v>482849.4160480523</v>
+        <v>676517.7111130519</v>
       </c>
       <c r="AF4" t="n">
         <v>7.411269203439769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>436766.9454638371</v>
+        <v>611951.8102629923</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.3048235850532</v>
+        <v>632.1924014427675</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.809366844676</v>
+        <v>864.9935340143439</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.7012448160174</v>
+        <v>782.4397651540642</v>
       </c>
       <c r="AD2" t="n">
-        <v>460304.8235850532</v>
+        <v>632192.4014427675</v>
       </c>
       <c r="AE2" t="n">
-        <v>629809.366844676</v>
+        <v>864993.534014344</v>
       </c>
       <c r="AF2" t="n">
         <v>5.454750838330764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.36458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>569701.2448160173</v>
+        <v>782439.7651540642</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.04860877709</v>
+        <v>535.7921253177789</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.1040054407694</v>
+        <v>733.0944233401054</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.0842547460931</v>
+        <v>663.1289204810104</v>
       </c>
       <c r="AD3" t="n">
-        <v>383048.60877709</v>
+        <v>535792.1253177789</v>
       </c>
       <c r="AE3" t="n">
-        <v>524104.0054407693</v>
+        <v>733094.4233401055</v>
       </c>
       <c r="AF3" t="n">
         <v>6.343028051138649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>474084.2547460931</v>
+        <v>663128.9204810103</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.6509553815254</v>
+        <v>506.873689391873</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.563280300887</v>
+        <v>693.5269435149287</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.0765391634193</v>
+        <v>627.3377053970418</v>
       </c>
       <c r="AD4" t="n">
-        <v>363650.9553815254</v>
+        <v>506873.689391873</v>
       </c>
       <c r="AE4" t="n">
-        <v>497563.280300887</v>
+        <v>693526.9435149287</v>
       </c>
       <c r="AF4" t="n">
         <v>6.615124972920887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>450076.5391634193</v>
+        <v>627337.7053970417</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>363.9388083551837</v>
+        <v>507.1615423655313</v>
       </c>
       <c r="AB5" t="n">
-        <v>497.9571334386231</v>
+        <v>693.9207966526649</v>
       </c>
       <c r="AC5" t="n">
-        <v>450.4328035104663</v>
+        <v>627.6939697440887</v>
       </c>
       <c r="AD5" t="n">
-        <v>363938.8083551837</v>
+        <v>507161.5423655313</v>
       </c>
       <c r="AE5" t="n">
-        <v>497957.1334386232</v>
+        <v>693920.7966526649</v>
       </c>
       <c r="AF5" t="n">
         <v>6.616087754625615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>450432.8035104663</v>
+        <v>627693.9697440887</v>
       </c>
     </row>
   </sheetData>
